--- a/Doc/Protocol_temp.xlsx
+++ b/Doc/Protocol_temp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>起始位</t>
   </si>
@@ -66,51 +66,13 @@
     <t>0x01</t>
   </si>
   <si>
-    <t>底盘里程计、速度</t>
-  </si>
-  <si>
-    <t>odometry.left</t>
+    <t>底盘速度</t>
+  </si>
+  <si>
+    <t>_dat.linear_x</t>
   </si>
   <si>
     <t>float32</t>
-  </si>
-  <si>
-    <t>左轮子里程计
-低字节在前
-单位m</t>
-  </si>
-  <si>
-    <t>odometry.right</t>
-  </si>
-  <si>
-    <t>右轮子里程计
-低字节在前
-单位°</t>
-  </si>
-  <si>
-    <t>CRC16</t>
-  </si>
-  <si>
-    <t>uint16</t>
-  </si>
-  <si>
-    <t>CRC16_modbus 校验
-低字节在前</t>
-  </si>
-  <si>
-    <t>下发</t>
-  </si>
-  <si>
-    <t>CARVEL</t>
-  </si>
-  <si>
-    <t>0x10</t>
-  </si>
-  <si>
-    <t>底盘速度</t>
-  </si>
-  <si>
-    <t>_dat.linear_x</t>
   </si>
   <si>
     <t>x方向线速度
@@ -124,6 +86,25 @@
     <t>z方向角速度
 低字节在前
 单位rad/s</t>
+  </si>
+  <si>
+    <t>CRC16</t>
+  </si>
+  <si>
+    <t>uint16</t>
+  </si>
+  <si>
+    <t>CRC16_modbus 校验
+低字节在前</t>
+  </si>
+  <si>
+    <t>下发</t>
+  </si>
+  <si>
+    <t>CARVEL</t>
+  </si>
+  <si>
+    <t>0x10</t>
   </si>
 </sst>
 </file>
@@ -766,7 +747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,9 +777,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1335,8 +1313,8 @@
   <sheetPr/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1567,11 +1545,11 @@
     <row r="21" spans="1:7">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10"/>
@@ -1579,8 +1557,8 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10"/>
@@ -1588,8 +1566,8 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10"/>
@@ -1597,8 +1575,8 @@
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10"/>
@@ -1606,8 +1584,8 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10"/>
@@ -1615,11 +1593,11 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1636,7 +1614,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1649,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1657,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G33" s="9"/>
     </row>
@@ -1699,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1707,7 +1685,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G37" s="9"/>
     </row>
@@ -1788,10 +1766,6 @@
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="E37:E40"/>
     <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="F11:G14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="F15:G18"/>
     <mergeCell ref="B33:D36"/>
     <mergeCell ref="B37:D40"/>
     <mergeCell ref="F33:G36"/>
@@ -1801,6 +1775,10 @@
     <mergeCell ref="D4:E5"/>
     <mergeCell ref="B19:D20"/>
     <mergeCell ref="F19:G20"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="F11:G14"/>
+    <mergeCell ref="F15:G18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
